--- a/biology/Neurosciences/Les_Neurones_de_la_lecture/Les_Neurones_de_la_lecture.xlsx
+++ b/biology/Neurosciences/Les_Neurones_de_la_lecture/Les_Neurones_de_la_lecture.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Les Neurones de la lecture est un ouvrage paru en 2007 du neuropsychologue Stanislas Dehaene qui expose, comme son nom l'indique, les dernières découvertes scientifiques au sujet de la lecture. Cette étude multidisciplinaire aborde le sujet par le biais de la neurobiologie, de la neuropsychologie, des théories de l'information et même de la génétique.
@@ -513,7 +525,9 @@
           <t>Sommaire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Introduction : La science de la lecture
 Comment lisons-nous
